--- a/biology/Zoologie/Ampelomeryx_ginsburgi/Ampelomeryx_ginsburgi.xlsx
+++ b/biology/Zoologie/Ampelomeryx_ginsburgi/Ampelomeryx_ginsburgi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ampelomeryx
-Ampelomeryx ginsburgi, appelé le cerf-girafe[1], unique représentant du genre Ampelomeryx, est une espèce fossile de mammifères artiodactyles herbivores appartenant à la famille des Palaeomerycidae.
-Ampelomeryx ginsburgi est l'une des quatre espèces nouvelles découvertes par les scientifiques du muséum de Toulouse dans le gisement de fossiles de Montréal-du-Gers exploré depuis 1988[2]. Sur ce même site, une mâchoire a été retrouvée le 27/08/2023[3]. 13 crânes ont aussi été retrouvés sur le site paléontologique espagnol d'Els Casots.
+Ampelomeryx ginsburgi, appelé le cerf-girafe, unique représentant du genre Ampelomeryx, est une espèce fossile de mammifères artiodactyles herbivores appartenant à la famille des Palaeomerycidae.
+Ampelomeryx ginsburgi est l'une des quatre espèces nouvelles découvertes par les scientifiques du muséum de Toulouse dans le gisement de fossiles de Montréal-du-Gers exploré depuis 1988. Sur ce même site, une mâchoire a été retrouvée le 27/08/2023. 13 crânes ont aussi été retrouvés sur le site paléontologique espagnol d'Els Casots.
 Son nom est choisi en hommage à Léonard Ginsburg, paléontologue français.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été découverte à Montréal-du-Gers dans le Gers en France. Elle vivait à l'époque du Miocène (entre -23 et -5 millions d'années).
 </t>
